--- a/artfynd/A 34633-2020.xlsx
+++ b/artfynd/A 34633-2020.xlsx
@@ -1035,10 +1035,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66506252</v>
+        <v>66506273</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1051,21 +1051,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>392925.1911740618</v>
+        <v>393923.6141253927</v>
       </c>
       <c r="R5" t="n">
-        <v>7026861.022998112</v>
+        <v>7027576.998562524</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1123,11 +1123,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>hackspår</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1139,7 +1134,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>16317</t>
+          <t>16334</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1157,7 +1152,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66506251</v>
+        <v>66506274</v>
       </c>
       <c r="B6" t="n">
         <v>77506</v>
@@ -1201,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>392925.1911740618</v>
+        <v>394078.0911856791</v>
       </c>
       <c r="R6" t="n">
-        <v>7026861.022998112</v>
+        <v>7027679.219634321</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1260,7 +1255,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>16316</t>
+          <t>16335</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1278,10 +1273,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66506249</v>
+        <v>66506252</v>
       </c>
       <c r="B7" t="n">
-        <v>76862</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1290,25 +1285,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6443</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Acolium inquinans</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Sm.) A.Massal.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1366,6 +1361,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>hackspår</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>16315</t>
+          <t>16317</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66506273</v>
+        <v>66506251</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1411,34 +1411,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Forsaberget-Greningen, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>393923.6141253927</v>
+        <v>392925.1911740618</v>
       </c>
       <c r="R8" t="n">
-        <v>7027576.998562524</v>
+        <v>7026861.022998112</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1494,7 +1498,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>16334</t>
+          <t>16316</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1512,10 +1516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66506274</v>
+        <v>66506249</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>76862</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1524,42 +1528,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6443</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Acolium inquinans</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Sm.) A.Massal.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Forsaberget-Greningen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>394078.0911856791</v>
+        <v>392925.1911740618</v>
       </c>
       <c r="R9" t="n">
-        <v>7027679.219634321</v>
+        <v>7026861.022998112</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>16335</t>
+          <t>16315</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
